--- a/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
+++ b/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>RDBES csv</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>ObjectName (final)</t>
+  </si>
+  <si>
+    <t>make_DBEestimRes</t>
   </si>
 </sst>
 </file>
@@ -410,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +509,9 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
+++ b/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>RDBES csv</t>
   </si>
@@ -53,9 +53,6 @@
     <t>DBErawObj</t>
   </si>
   <si>
-    <t>DBEestimRes</t>
-  </si>
-  <si>
     <t>TR.csv, FO.csv, ...</t>
   </si>
   <si>
@@ -87,16 +84,86 @@
   </si>
   <si>
     <t>make_DBEestimRes</t>
+  </si>
+  <si>
+    <t>make_DBEestimObjLow</t>
+  </si>
+  <si>
+    <t>Suggestion</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEestimObjUpp</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEestimObjMid</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEestimObjLow</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEresPointUpp.R</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEresPointMid.R</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEresPointLow.R</t>
+  </si>
+  <si>
+    <t>make_DBEprepObj.R</t>
+  </si>
+  <si>
+    <t>make_DBErawObj.R</t>
+  </si>
+  <si>
+    <t>extract_RDBEScsv.SQL</t>
+  </si>
+  <si>
+    <t>-&gt; make_DBEestimObj.R</t>
+  </si>
+  <si>
+    <t>-&gt; make_DBEresPoint.R</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DBEestimRes / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DBEresPoint</t>
+    </r>
+  </si>
+  <si>
+    <t>DBEresVar</t>
+  </si>
+  <si>
+    <t>-&gt; make_DBEresVar.R</t>
+  </si>
+  <si>
+    <t>-&gt; Make_DBEres.R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -124,13 +191,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G10"/>
+  <dimension ref="C3:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,35 +579,44 @@
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -461,10 +627,13 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -475,10 +644,13 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>3</v>
       </c>
@@ -486,34 +658,86 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I10:I13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
+++ b/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>RDBES csv</t>
   </si>
@@ -92,24 +92,6 @@
     <t>Suggestion</t>
   </si>
   <si>
-    <t>make_tmp.DBEestimObjUpp</t>
-  </si>
-  <si>
-    <t>make_tmp.DBEestimObjMid</t>
-  </si>
-  <si>
-    <t>make_tmp.DBEestimObjLow</t>
-  </si>
-  <si>
-    <t>make_tmp.DBEresPointUpp.R</t>
-  </si>
-  <si>
-    <t>make_tmp.DBEresPointMid.R</t>
-  </si>
-  <si>
-    <t>make_tmp.DBEresPointLow.R</t>
-  </si>
-  <si>
     <t>make_DBEprepObj.R</t>
   </si>
   <si>
@@ -122,7 +104,37 @@
     <t>-&gt; make_DBEestimObj.R</t>
   </si>
   <si>
-    <t>-&gt; make_DBEresPoint.R</t>
+    <t>make_tmp.DBEestimObj.Low</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEestimObj.Mid</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEestimObj.Upp</t>
+  </si>
+  <si>
+    <t>-&gt; make_tmp.DBEresultsTotalPoint.R</t>
+  </si>
+  <si>
+    <t>-&gt; make_tmp.DBEresultsTotalVariance.R</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEresultsTotalPoint.Mid.R</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEresultsTotalPoint.Low.R</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEresultsTotalPoint.Upp.R</t>
+  </si>
+  <si>
+    <t>-&gt; Make_DBEresultsTotal.R</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEresultsTotalVariance.HT.R</t>
+  </si>
+  <si>
+    <t>make_tmp.DBEresultsTotalVariance.HH.R</t>
   </si>
   <si>
     <r>
@@ -136,17 +148,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DBEresPoint</t>
+      <t>DBEresTotPoint</t>
     </r>
   </si>
   <si>
-    <t>DBEresVar</t>
-  </si>
-  <si>
-    <t>-&gt; make_DBEresVar.R</t>
-  </si>
-  <si>
-    <t>-&gt; Make_DBEres.R</t>
+    <r>
+      <t xml:space="preserve">DBEresVar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ DBEresTotVar</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -226,6 +244,15 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -236,56 +263,36 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,21 +575,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I13"/>
+  <dimension ref="C3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
@@ -613,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
@@ -630,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
@@ -647,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
@@ -661,10 +668,10 @@
         <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
@@ -675,9 +682,9 @@
         <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
@@ -687,55 +694,66 @@
         <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="H13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I10:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
+++ b/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>RDBES csv</t>
   </si>
@@ -56,24 +56,9 @@
     <t>TR.csv, FO.csv, ...</t>
   </si>
   <si>
-    <t>make_DBEprepObj</t>
-  </si>
-  <si>
-    <t>make_DBErawObj</t>
-  </si>
-  <si>
-    <t>make_DBEestimObjUpp</t>
-  </si>
-  <si>
-    <t>make_DBEestimObjMid</t>
-  </si>
-  <si>
     <t>what</t>
   </si>
   <si>
-    <t>ScriptName</t>
-  </si>
-  <si>
     <t>extract_RDBESdata</t>
   </si>
   <si>
@@ -83,15 +68,6 @@
     <t>ObjectName (final)</t>
   </si>
   <si>
-    <t>make_DBEestimRes</t>
-  </si>
-  <si>
-    <t>make_DBEestimObjLow</t>
-  </si>
-  <si>
-    <t>Suggestion</t>
-  </si>
-  <si>
     <t>make_DBEprepObj.R</t>
   </si>
   <si>
@@ -101,87 +77,47 @@
     <t>extract_RDBEScsv.SQL</t>
   </si>
   <si>
-    <t>-&gt; make_DBEestimObj.R</t>
-  </si>
-  <si>
-    <t>make_tmp.DBEestimObj.Low</t>
-  </si>
-  <si>
-    <t>make_tmp.DBEestimObj.Mid</t>
-  </si>
-  <si>
-    <t>make_tmp.DBEestimObj.Upp</t>
-  </si>
-  <si>
-    <t>-&gt; make_tmp.DBEresultsTotalPoint.R</t>
-  </si>
-  <si>
-    <t>-&gt; make_tmp.DBEresultsTotalVariance.R</t>
-  </si>
-  <si>
-    <t>make_tmp.DBEresultsTotalPoint.Mid.R</t>
-  </si>
-  <si>
-    <t>make_tmp.DBEresultsTotalPoint.Low.R</t>
-  </si>
-  <si>
-    <t>make_tmp.DBEresultsTotalPoint.Upp.R</t>
-  </si>
-  <si>
     <t>-&gt; Make_DBEresultsTotal.R</t>
   </si>
   <si>
-    <t>make_tmp.DBEresultsTotalVariance.HT.R</t>
-  </si>
-  <si>
-    <t>make_tmp.DBEresultsTotalVariance.HH.R</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DBEestimRes / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DBEresTotPoint</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DBEresVar </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ DBEresTotVar</t>
-    </r>
+    <t>DBEresultsTotalVariance</t>
+  </si>
+  <si>
+    <t>DBEresultsTotalPoint</t>
+  </si>
+  <si>
+    <t>make_DBEresultsTotalPoint</t>
+  </si>
+  <si>
+    <t>make_DBEresultsTotalVariance</t>
+  </si>
+  <si>
+    <t>DBEresultsTotalPointUpp</t>
+  </si>
+  <si>
+    <t>DBEresultsTotalPointMid</t>
+  </si>
+  <si>
+    <t>DBEresultsTotalPointLow</t>
+  </si>
+  <si>
+    <t>Wrapper</t>
+  </si>
+  <si>
+    <t>MainFunctionName</t>
+  </si>
+  <si>
+    <t>make_DBEestimObj.R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -232,38 +168,23 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -272,29 +193,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I14"/>
+  <dimension ref="C3:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,30 +498,29 @@
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -617,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -633,14 +544,15 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F9" si="0">"make_"&amp;E5</f>
+        <v>make_DBErawObj</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -650,110 +562,109 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>make_DBEprepObj</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>make_DBEestimObjUpp</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>make_DBEestimObjMid</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>make_DBEestimObjLow</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="str">
+        <f>"make_"&amp;E10</f>
+        <v>make_DBEresultsTotalPointUpp</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="9"/>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ref="F11:F12" si="1">"make_"&amp;E11</f>
+        <v>make_DBEresultsTotalPointMid</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>make_DBEresultsTotalPointLow</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I10:I14"/>
+  <mergeCells count="3">
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
+++ b/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
-  <si>
-    <t>RDBES csv</t>
-  </si>
-  <si>
-    <t>R list</t>
-  </si>
-  <si>
-    <t>R lis processed (w probinc)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>DBEestimObj</t>
   </si>
@@ -56,42 +48,21 @@
     <t>TR.csv, FO.csv, ...</t>
   </si>
   <si>
+    <t>make_DBEestimObjUpp</t>
+  </si>
+  <si>
     <t>what</t>
   </si>
   <si>
-    <t>extract_RDBESdata</t>
-  </si>
-  <si>
-    <t>ObjectName (subgroups)</t>
-  </si>
-  <si>
     <t>ObjectName (final)</t>
   </si>
   <si>
-    <t>make_DBEprepObj.R</t>
-  </si>
-  <si>
-    <t>make_DBErawObj.R</t>
-  </si>
-  <si>
-    <t>extract_RDBEScsv.SQL</t>
-  </si>
-  <si>
-    <t>-&gt; Make_DBEresultsTotal.R</t>
-  </si>
-  <si>
     <t>DBEresultsTotalVariance</t>
   </si>
   <si>
     <t>DBEresultsTotalPoint</t>
   </si>
   <si>
-    <t>make_DBEresultsTotalPoint</t>
-  </si>
-  <si>
-    <t>make_DBEresultsTotalVariance</t>
-  </si>
-  <si>
     <t>DBEresultsTotalPointUpp</t>
   </si>
   <si>
@@ -107,15 +78,256 @@
     <t>MainFunctionName</t>
   </si>
   <si>
-    <t>make_DBEestimObj.R</t>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SG1</t>
+    </r>
+  </si>
+  <si>
+    <t>Produce functions for data extraction and preparation of datasets</t>
+  </si>
+  <si>
+    <t>Adding the probabilities and weights to the datasets</t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SG2</t>
+    </r>
+  </si>
+  <si>
+    <t>Produce function that picks up the prepared tables and creates an estimation object (master table)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create functions that run point estimation on estimation object </t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SG3</t>
+    </r>
+  </si>
+  <si>
+    <t>Compile and identify variables for variance estimation</t>
+  </si>
+  <si>
+    <t>Code the variance for the univariate HH and HT estimator with the estimation object</t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SG4</t>
+    </r>
+  </si>
+  <si>
+    <t>Define structure for Species Selection handling - develop from proof of concept</t>
+  </si>
+  <si>
+    <t>Produce function for data preparation of SA table</t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SG5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce function for univariate or multivariate sample data and estimation </t>
+  </si>
+  <si>
+    <t>Trial estimation at sample level</t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SG6</t>
+    </r>
+  </si>
+  <si>
+    <t>Set up R-package and think about what it involves (maintenance, test environment, collaboration,…)</t>
+  </si>
+  <si>
+    <t>Test inclusion of 1 function in package; incorporate other functions as they get ready</t>
+  </si>
+  <si>
+    <t>document estimation issues</t>
+  </si>
+  <si>
+    <t>Starting point</t>
+  </si>
+  <si>
+    <t>End point</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>DBEresultsTotalPoint.Upp</t>
+  </si>
+  <si>
+    <t>make_DBEresultsTotalPoint.Upp</t>
+  </si>
+  <si>
+    <t>doDBErawObj.R</t>
+  </si>
+  <si>
+    <t>computeDBEresultsTotalPointUpp</t>
+  </si>
+  <si>
+    <t>computeDBEresultsTotalPointMid</t>
+  </si>
+  <si>
+    <t>computeDBEresultsTotalPointLow</t>
+  </si>
+  <si>
+    <t>computeDBEresultsTotalVariance</t>
+  </si>
+  <si>
+    <t>SG1</t>
+  </si>
+  <si>
+    <t>doDBEpreparedObj.R</t>
+  </si>
+  <si>
+    <t>doDBEestimationObjUpp</t>
+  </si>
+  <si>
+    <t>doDBEestimationObjMid</t>
+  </si>
+  <si>
+    <t>doDBEestimationObjLow</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>GroupsInvolved</t>
+  </si>
+  <si>
+    <t>RDBES extractions as .csv</t>
+  </si>
+  <si>
+    <t>R list with raw data</t>
+  </si>
+  <si>
+    <t>R list with prepared data (with probInc)</t>
+  </si>
+  <si>
+    <t>R list with master estimation table</t>
+  </si>
+  <si>
+    <t>R list with point estimates of totals</t>
+  </si>
+  <si>
+    <t>R list with variance estimates of totals</t>
+  </si>
+  <si>
+    <t>ObjectName (use in subgroups)</t>
+  </si>
+  <si>
+    <t>doRDBESextraction.SQL</t>
+  </si>
+  <si>
+    <t>doDBEestimationObj.R</t>
+  </si>
+  <si>
+    <t>computeDBEresultsTotalPoint.R</t>
+  </si>
+  <si>
+    <t>computeDBEresultsTotalVariance.R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -137,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,53 +372,45 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,186 +691,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H14"/>
+  <dimension ref="B3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" ref="F5:F9" si="0">"make_"&amp;E5</f>
-        <v>make_DBErawObj</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>make_DBEprepObj</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>make_DBEestimObjUpp</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>make_DBEestimObjMid</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>make_DBEestimObjLow</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="str">
-        <f>"make_"&amp;E10</f>
-        <v>make_DBEresultsTotalPointUpp</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" ref="F11:F12" si="1">"make_"&amp;E11</f>
-        <v>make_DBEresultsTotalPointMid</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>make_DBEresultsTotalPointLow</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H14" s="4"/>
+      <c r="E13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G25"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="94.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
+++ b/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>DBEestimObj</t>
   </si>
@@ -292,6 +292,27 @@
   </si>
   <si>
     <t>computeDBEresultsTotalVariance.R</t>
+  </si>
+  <si>
+    <t>SG4</t>
+  </si>
+  <si>
+    <t>SG2</t>
+  </si>
+  <si>
+    <t>SG3</t>
+  </si>
+  <si>
+    <t>SG5</t>
+  </si>
+  <si>
+    <t>SG4, SG1</t>
+  </si>
+  <si>
+    <t>SG2, SG1</t>
+  </si>
+  <si>
+    <t>SG5, SG1</t>
   </si>
 </sst>
 </file>
@@ -380,9 +401,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
@@ -405,12 +423,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +729,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -728,7 +749,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -737,7 +758,7 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -748,7 +769,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -757,7 +778,7 @@
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -768,7 +789,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -777,7 +798,7 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -788,10 +809,13 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -800,37 +824,46 @@
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -839,46 +872,55 @@
       <c r="F10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -906,7 +948,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="94.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -924,28 +966,28 @@
       </c>
     </row>
     <row r="3" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
@@ -959,7 +1001,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
@@ -973,89 +1015,89 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="9"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="8"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
+++ b/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>DBEestimObj</t>
   </si>
@@ -48,12 +48,6 @@
     <t>TR.csv, FO.csv, ...</t>
   </si>
   <si>
-    <t>make_DBEestimObjUpp</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
     <t>ObjectName (final)</t>
   </si>
   <si>
@@ -72,132 +66,36 @@
     <t>DBEresultsTotalPointLow</t>
   </si>
   <si>
-    <t>Wrapper</t>
-  </si>
-  <si>
-    <t>MainFunctionName</t>
-  </si>
-  <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SG1</t>
-    </r>
-  </si>
-  <si>
     <t>Produce functions for data extraction and preparation of datasets</t>
   </si>
   <si>
     <t>Adding the probabilities and weights to the datasets</t>
   </si>
   <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SG2</t>
-    </r>
-  </si>
-  <si>
     <t>Produce function that picks up the prepared tables and creates an estimation object (master table)</t>
   </si>
   <si>
     <t xml:space="preserve">Create functions that run point estimation on estimation object </t>
   </si>
   <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SG3</t>
-    </r>
-  </si>
-  <si>
     <t>Compile and identify variables for variance estimation</t>
   </si>
   <si>
     <t>Code the variance for the univariate HH and HT estimator with the estimation object</t>
   </si>
   <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SG4</t>
-    </r>
-  </si>
-  <si>
     <t>Define structure for Species Selection handling - develop from proof of concept</t>
   </si>
   <si>
     <t>Produce function for data preparation of SA table</t>
   </si>
   <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SG5</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Produce function for univariate or multivariate sample data and estimation </t>
   </si>
   <si>
     <t>Trial estimation at sample level</t>
   </si>
   <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SG6</t>
-    </r>
-  </si>
-  <si>
     <t>Set up R-package and think about what it involves (maintenance, test environment, collaboration,…)</t>
   </si>
   <si>
@@ -216,42 +114,15 @@
     <t>function</t>
   </si>
   <si>
-    <t>DBEresultsTotalPoint.Upp</t>
-  </si>
-  <si>
-    <t>make_DBEresultsTotalPoint.Upp</t>
-  </si>
-  <si>
     <t>doDBErawObj.R</t>
   </si>
   <si>
-    <t>computeDBEresultsTotalPointUpp</t>
-  </si>
-  <si>
-    <t>computeDBEresultsTotalPointMid</t>
-  </si>
-  <si>
-    <t>computeDBEresultsTotalPointLow</t>
-  </si>
-  <si>
-    <t>computeDBEresultsTotalVariance</t>
-  </si>
-  <si>
     <t>SG1</t>
   </si>
   <si>
     <t>doDBEpreparedObj.R</t>
   </si>
   <si>
-    <t>doDBEestimationObjUpp</t>
-  </si>
-  <si>
-    <t>doDBEestimationObjMid</t>
-  </si>
-  <si>
-    <t>doDBEestimationObjLow</t>
-  </si>
-  <si>
     <t>same</t>
   </si>
   <si>
@@ -313,25 +184,49 @@
   </si>
   <si>
     <t>SG5, SG1</t>
+  </si>
+  <si>
+    <t>SG6</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>doDBEestimationObjUpp.R</t>
+  </si>
+  <si>
+    <t>MainFunctionName (.R)</t>
+  </si>
+  <si>
+    <t>Wrapper (.R)</t>
+  </si>
+  <si>
+    <t>doDBEestimationObjMid.R</t>
+  </si>
+  <si>
+    <t>doDBEestimationObjLow.R</t>
+  </si>
+  <si>
+    <t>computeDBEresultsTotalPointUpp.R</t>
+  </si>
+  <si>
+    <t>computeDBEresultsTotalPointMid.R</t>
+  </si>
+  <si>
+    <t>computeDBEresultsTotalPointLow.R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -399,25 +294,18 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,13 +313,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,199 +624,199 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>64</v>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -943,12 +838,13 @@
   <dimension ref="C2:G25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="94.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13"/>
+    <col min="4" max="4" width="94.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -956,149 +852,131 @@
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="7" t="s">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9" t="s">
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="7" t="s">
+    </row>
+    <row r="20" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="21" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6" t="s">
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="8" t="s">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
+++ b/WKRDB-EST2/chairs/Object&ScriptNames.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
   <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
